--- a/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>75.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.01</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>75.31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.01</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>79.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.18</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>79.29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.18</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0571</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6318</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3468</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.74</v>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.03</v>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1558,14 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1574,14 +1661,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06</v>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1590,13 +1699,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300263-隆华科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.9</v>
+          <t>015079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.74</v>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>015080</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.03</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="5">
@@ -1821,14 +1992,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="6">
@@ -1837,14 +2008,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -1853,13 +2024,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>
